--- a/data/trans_camb/MCS12_SP_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>6.95419819146677</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8263411871083759</v>
+        <v>0.8263411871083814</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5.585568715365941</v>
@@ -655,7 +655,7 @@
         <v>-2.176307464525679</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-5.411358542137684</v>
+        <v>-5.411358542137689</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>8.388505953527941</v>
@@ -664,7 +664,7 @@
         <v>3.411815067147761</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-1.335902888276835</v>
+        <v>-1.335902888276841</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.00927847161943</v>
+        <v>2.565518869733287</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3297458928180715</v>
+        <v>-0.3267449645630841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.942109349281031</v>
+        <v>-5.593712577920012</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.329511686757414</v>
+        <v>-1.956332850801646</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.859803951733861</v>
+        <v>-9.741528744081196</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-12.63779131418366</v>
+        <v>-11.87324930750863</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.160173084982365</v>
+        <v>3.014042627725791</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.478877499876206</v>
+        <v>-1.519277562036016</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.656415869495322</v>
+        <v>-5.710337195381391</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.77383174660033</v>
+        <v>16.8847119098704</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.64864668755631</v>
+        <v>13.75158072110256</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.291003973553832</v>
+        <v>7.982892374421185</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.0350036994274</v>
+        <v>14.57237843471343</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.774734556398737</v>
+        <v>5.87986745712519</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.282813105238427</v>
+        <v>1.676994154056477</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.83908915140005</v>
+        <v>13.3734531186529</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.293896192551731</v>
+        <v>8.76617071908937</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.581345716679933</v>
+        <v>3.549458632963749</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1705446183682695</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.02026517486520705</v>
+        <v>0.02026517486520719</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1100704020635734</v>
@@ -760,7 +760,7 @@
         <v>-0.04288677659184493</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1066373794318676</v>
+        <v>-0.1066373794318677</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1876886360172652</v>
@@ -769,7 +769,7 @@
         <v>0.07633766010821062</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.02989016069622666</v>
+        <v>-0.02989016069622679</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.07099433637276592</v>
+        <v>0.05999733692945981</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.009305440708208516</v>
+        <v>-0.009916689878234498</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1367679800592943</v>
+        <v>-0.1275256228233445</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0621446649572678</v>
+        <v>-0.03574779257071541</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1831329400993391</v>
+        <v>-0.1841474333313088</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2268844231579104</v>
+        <v>-0.2214617689836357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06523805729008005</v>
+        <v>0.06643155714537448</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03023970762543141</v>
+        <v>-0.03266840673188472</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1202606786466748</v>
+        <v>-0.1234880472725358</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4500507428738419</v>
+        <v>0.4470776058734451</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3729700830917226</v>
+        <v>0.366750248393611</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.192179768484863</v>
+        <v>0.2107961147932558</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2980482339691553</v>
+        <v>0.3101072488180139</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1243419649675018</v>
+        <v>0.1231365226354848</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02640143358667232</v>
+        <v>0.02866123592699173</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3292200872719628</v>
+        <v>0.3156617538915762</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1977924764458336</v>
+        <v>0.2075356924662435</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.08473875010332374</v>
+        <v>0.08696313485867779</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>7.351338000918228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.455538496881521</v>
+        <v>-2.455538496881515</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>9.499649093448348</v>
@@ -878,7 +878,7 @@
         <v>2.69995735045524</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-4.42389530506645</v>
+        <v>-4.423895305066461</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.955144710662214</v>
+        <v>2.343985190732923</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4221106542866915</v>
+        <v>-0.03947016333429731</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.98877269897933</v>
+        <v>-10.01604520912338</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.216628773637265</v>
+        <v>1.946781497744145</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.960605506903297</v>
+        <v>-9.098423188942922</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-12.80966699090734</v>
+        <v>-12.20912696914839</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.788261553622378</v>
+        <v>3.369046745359394</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.379285697665767</v>
+        <v>-2.83774588386612</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-9.03362611189298</v>
+        <v>-8.81869608369543</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.1210941173965</v>
+        <v>16.478275987863</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.76293558173372</v>
+        <v>14.68609440270349</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.186998928741327</v>
+        <v>4.122433012202817</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.46372288952018</v>
+        <v>16.82407508253727</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.449574816879368</v>
+        <v>5.876862555933688</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7731908158566444</v>
+        <v>1.187823166026332</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.01438375088665</v>
+        <v>14.1826804965054</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.176148423436716</v>
+        <v>8.309567814406815</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4979249803740994</v>
+        <v>0.4975669325572295</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1887774170229302</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.06305657756231065</v>
+        <v>-0.06305657756231051</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1731371657779105</v>
@@ -983,7 +983,7 @@
         <v>0.05749735355033557</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.09420973719536246</v>
+        <v>-0.0942097371953627</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04280231387997043</v>
+        <v>0.05586269375418763</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.009333096940891813</v>
+        <v>0.0007562913445831615</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2111035875781055</v>
+        <v>-0.2342765328191739</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04280583287862499</v>
+        <v>0.03457580500419423</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1549757347511935</v>
+        <v>-0.155033851615935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2143299840619404</v>
+        <v>-0.2047869552984797</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05643615356476348</v>
+        <v>0.07032791452934146</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04927739553597307</v>
+        <v>-0.05531375977384056</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.185020899032637</v>
+        <v>-0.1770781225120291</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.461147534761519</v>
+        <v>0.4683566868895025</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4253696523473193</v>
+        <v>0.4234967528946653</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1218766570472375</v>
+        <v>0.1147249815899093</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3496247236262952</v>
+        <v>0.3308832257362425</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.106999428034717</v>
+        <v>0.1141491317905927</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01625422893909221</v>
+        <v>0.02260533549510456</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3177434285292966</v>
+        <v>0.3316885174227604</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1867426726447398</v>
+        <v>0.1883238549194007</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.009971628004598889</v>
+        <v>0.01158613302996647</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>5.319462468789421</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.2974180992657338</v>
+        <v>-0.2974180992657283</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.777436074796802</v>
+        <v>2.229683014207917</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2176556358710479</v>
+        <v>-0.2847255361549371</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.619597179744419</v>
+        <v>-6.156389626002116</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.8432786396116307</v>
+        <v>-0.5478724665638818</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.224314247644401</v>
+        <v>-7.967937498424807</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.46800592391991</v>
+        <v>-12.94509705281264</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.931334856074958</v>
+        <v>4.209651205280633</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2481169857740813</v>
+        <v>-0.0685809292860789</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.871745379172957</v>
+        <v>-5.989010578392516</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.54709189404821</v>
+        <v>14.33888343921651</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.77034729027945</v>
+        <v>11.9228163185874</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.42466044832971</v>
+        <v>6.215736563339906</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.44120537609686</v>
+        <v>18.46266051882185</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.09038014264078</v>
+        <v>14.13714564537152</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.572324340543561</v>
+        <v>6.41584913592531</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.19634439125697</v>
+        <v>14.41181500798773</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.49704845850044</v>
+        <v>10.80040694513893</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.952657914635354</v>
+        <v>5.245370640300036</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.111322235464382</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.006224171685031891</v>
+        <v>-0.006224171685031775</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.06162175516108122</v>
+        <v>0.04649389030873896</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.004451154560884813</v>
+        <v>-0.005860637575260092</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1375849699903513</v>
+        <v>-0.1304714485767426</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.01466838722654854</v>
+        <v>-0.009366847589307895</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1299570221725883</v>
+        <v>-0.1253005142435113</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1975074488981112</v>
+        <v>-0.207827329853196</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0791242778001629</v>
+        <v>0.080836893735137</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.004160744922955731</v>
+        <v>-0.002856383292472548</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1175437098099651</v>
+        <v>-0.1173344481077686</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3574219675684311</v>
+        <v>0.3415329070726724</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3067903998404952</v>
+        <v>0.2815502687315186</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1486668726892306</v>
+        <v>0.1483479610342922</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.338633754098467</v>
+        <v>0.3609005338438218</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.274721228940433</v>
+        <v>0.2712082517286706</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1475991975203076</v>
+        <v>0.1213869373232922</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3167213284373118</v>
+        <v>0.322304212019891</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.232187248417129</v>
+        <v>0.2380939237284908</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1089274728725706</v>
+        <v>0.1138278198030778</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>2.152008298139507</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-4.942258664162408</v>
+        <v>-4.942258664162402</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>7.621841081665115</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8963754103982844</v>
+        <v>-0.8897849842190416</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.770775636298835</v>
+        <v>-2.141369043399506</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.460692842400217</v>
+        <v>-8.84265159215863</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.939208831854502</v>
+        <v>2.344609478090662</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.083505864035572</v>
+        <v>-3.0026526612049</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.393938455885667</v>
+        <v>-8.304515833351092</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.864456395748746</v>
+        <v>1.824107349131553</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.8758574638815565</v>
+        <v>-0.7075058832177804</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.463834410667572</v>
+        <v>-7.558685467044292</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.371503813747737</v>
+        <v>7.279394584028047</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.400678045350268</v>
+        <v>6.42249906592534</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.810138402219938</v>
+        <v>-0.2217966527211077</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.04693896221475</v>
+        <v>12.6429499325699</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.25596248059527</v>
+        <v>7.293222708836483</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4277401217044936</v>
+        <v>0.6637329503737541</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.182963126563772</v>
+        <v>8.170999439068996</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.485559570804422</v>
+        <v>5.431503033386006</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.268663604929753</v>
+        <v>-1.242391386566369</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.04460620073610651</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1024416970203981</v>
+        <v>-0.102441697020398</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1425562934716844</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01770722453991331</v>
+        <v>-0.01662210927269485</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03591390664093323</v>
+        <v>-0.04173649889716694</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1907062754180529</v>
+        <v>-0.176446892173475</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.05193963558870938</v>
+        <v>0.0420747337034456</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05526758166551041</v>
+        <v>-0.05387314226394242</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1670824474805116</v>
+        <v>-0.1481939873992911</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03601433831171507</v>
+        <v>0.03563478222721972</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01703103410995378</v>
+        <v>-0.01375813480079315</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1442942213456448</v>
+        <v>-0.1453315020450801</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1572281522967443</v>
+        <v>0.157934882032171</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1393038697733614</v>
+        <v>0.1420971281203946</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.01765211022895744</v>
+        <v>-0.004693879642921926</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2566923247028684</v>
+        <v>0.249272683757344</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1408540185186121</v>
+        <v>0.1445457317786956</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.008389940617322188</v>
+        <v>0.01187868644805757</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1684328100715586</v>
+        <v>0.1684958548800999</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1130489353881513</v>
+        <v>0.1130903348780904</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.02599047070906901</v>
+        <v>-0.025113391039053</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>7.53461683873804</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.288045069692651</v>
+        <v>2.288045069692663</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>6.314620160909179</v>
@@ -1511,7 +1511,7 @@
         <v>4.536683481119308</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-3.516284105491441</v>
+        <v>-3.51628410549143</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.851737080725482</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.490777777881237</v>
+        <v>-3.651036642191781</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8837005117135288</v>
+        <v>0.8630271737251265</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.939136016405293</v>
+        <v>-4.80048664883303</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.167106951932876</v>
+        <v>0.819017077457845</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.074094951550982</v>
+        <v>-1.407734423934406</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.893940082453142</v>
+        <v>-8.936379787268923</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6089634975120649</v>
+        <v>0.5167123734594515</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2060790326282994</v>
+        <v>0.1592442776918334</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-6.092337293499062</v>
+        <v>-5.375661268199377</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.97122536597949</v>
+        <v>10.73696926529586</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>14.68926755977567</v>
+        <v>14.4816894988253</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.333994436069695</v>
+        <v>9.234875945907284</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.36627570857833</v>
+        <v>11.81180088900295</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.56676904195962</v>
+        <v>9.862349126125315</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.233683648740605</v>
+        <v>1.70482299858348</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.734858181518163</v>
+        <v>8.958918448019244</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.258010798074661</v>
+        <v>9.08595718300181</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.630169388242019</v>
+        <v>2.597727442432716</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1751071590721806</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.05317497632037442</v>
+        <v>0.05317497632037468</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1080022274856641</v>
@@ -1616,7 +1616,7 @@
         <v>0.07759325325559341</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.06014083289070433</v>
+        <v>-0.06014083289070414</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.09227298516128042</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.07442165111244489</v>
+        <v>-0.07725810426983029</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.0190635838553671</v>
+        <v>0.01723258870592405</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1031069072512529</v>
+        <v>-0.1033272921214095</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.01758279273464895</v>
+        <v>0.01368575163932793</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.01256021589969485</v>
+        <v>-0.0235835950614868</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1443609148440357</v>
+        <v>-0.1444827003635023</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0110532602008317</v>
+        <v>0.009518267796155644</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.003302124845519892</v>
+        <v>0.003189641575396087</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1079146106108617</v>
+        <v>-0.09898306145434518</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2845312935513037</v>
+        <v>0.2752797183925872</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3816187564319632</v>
+        <v>0.3698662369493795</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.237223631000111</v>
+        <v>0.2415952115926254</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2236357805962721</v>
+        <v>0.2150236155253447</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1959681108785298</v>
+        <v>0.1772473829500352</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02165180619526086</v>
+        <v>0.0311694847351993</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1774067593541268</v>
+        <v>0.1801016435208591</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1847982031580713</v>
+        <v>0.1827444715526936</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.05336084377679738</v>
+        <v>0.05172600361653455</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>-1.223509277268375</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-2.509523758933535</v>
+        <v>-2.509523758933524</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.093313850910101</v>
+        <v>-4.396963108749015</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.087272669168242</v>
+        <v>-4.455780518735453</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-10.51787700141196</v>
+        <v>-9.817967475750821</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.50065421566854</v>
+        <v>3.349178708610471</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.575601207663732</v>
+        <v>-5.890814214454521</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.919711356969481</v>
+        <v>-6.556228054591053</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>3.215360962813465</v>
+        <v>2.846395688865377</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-5.056758255751165</v>
+        <v>-4.929438934585503</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-6.325760155188452</v>
+        <v>-6.838696957760984</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.46147880462144</v>
+        <v>11.38977681383965</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.17234462469394</v>
+        <v>10.92598195818609</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10.4076856428265</v>
+        <v>11.23922176682355</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.57334742764117</v>
+        <v>11.29215638728166</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.425893784854405</v>
+        <v>2.549575323655151</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.91235396499217</v>
+        <v>2.35275818149502</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>10.19837490212816</v>
+        <v>10.54527312571994</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.46922003349673</v>
+        <v>2.664138310931921</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.026846455809783</v>
+        <v>2.389457116767641</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>-0.02536738877809473</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.05203071690871119</v>
+        <v>-0.05203071690871097</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1544464552738275</v>
+        <v>-0.136300967165223</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.126913663370313</v>
+        <v>-0.1357782192767993</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.329032521961918</v>
+        <v>-0.3115474876839532</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.0640487975705418</v>
+        <v>0.06120207456676288</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1169527378312929</v>
+        <v>-0.1068459041398578</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.127683240114097</v>
+        <v>-0.1206150046194967</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0651289171605313</v>
+        <v>0.05673455746153216</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.101482840450612</v>
+        <v>-0.09806334149499528</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1279545257078231</v>
+        <v>-0.1369040541211456</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.4106918752463594</v>
+        <v>0.4470466694262989</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4470516137171659</v>
+        <v>0.4439613216383314</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3828884579578712</v>
+        <v>0.4271783183941855</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2262533809744025</v>
+        <v>0.2242171712947111</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.04847732013920416</v>
+        <v>0.05083124538099469</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0371868164430019</v>
+        <v>0.04551770309463464</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2207594709155616</v>
+        <v>0.2246568470445074</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.05306425834952641</v>
+        <v>0.05787986215403072</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.04271245670201017</v>
+        <v>0.05152420866578644</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>0.7431692051565797</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-3.524063439991398</v>
+        <v>-3.524063439991376</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>6.764110912668314</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>3.241451012767074</v>
+        <v>3.406083633228526</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.246580341467195</v>
+        <v>2.532346705868242</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.317481285908025</v>
+        <v>-4.075344660676731</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5.156920125274364</v>
+        <v>5.372074096996741</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.634982283885565</v>
+        <v>-1.820171285757015</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-5.573979835106095</v>
+        <v>-5.7210079376927</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>5.188460059612756</v>
+        <v>5.068203077557683</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.099724286492392</v>
+        <v>0.9138472061368706</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.135491942262695</v>
+        <v>-4.133199472375289</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>8.112077442175547</v>
+        <v>8.045427078540435</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.281921249802056</v>
+        <v>7.478628779244143</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.8113696928110826</v>
+        <v>0.9197950832364995</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.11066796727932</v>
+        <v>10.26944286728672</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.17088756100157</v>
+        <v>3.117485309113368</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-1.07553417949805</v>
+        <v>-1.261534867845849</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>8.431210264364138</v>
+        <v>8.390306571203146</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.593633272755114</v>
+        <v>4.631400768027976</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-0.7601865400843039</v>
+        <v>-0.763402975025449</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.01371999060886547</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.06505936597782085</v>
+        <v>-0.06505936597782043</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1386286306886033</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.07387492315811921</v>
+        <v>0.07833352772484826</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.05066686635090278</v>
+        <v>0.05864443951109329</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.09582725204177799</v>
+        <v>-0.09162098406824089</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.09347847636532608</v>
+        <v>0.09690016768060361</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.02953920128838092</v>
+        <v>-0.03287510186902447</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1011771399302877</v>
+        <v>-0.102697179928252</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1052924437098968</v>
+        <v>0.1025052649805159</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.02226125974661426</v>
+        <v>0.01924341884898811</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.08376770489230705</v>
+        <v>-0.08315550283261967</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1929001366714616</v>
+        <v>0.1944631583021307</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1727411024203113</v>
+        <v>0.180965480145308</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.02046840112040813</v>
+        <v>0.02170906852216789</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1908828615978004</v>
+        <v>0.1931132429320621</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.05998146645719171</v>
+        <v>0.05826325109678979</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.02040036030957681</v>
+        <v>-0.02358982195085414</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.175447130899805</v>
+        <v>0.1757749194243615</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.09657617765548676</v>
+        <v>0.09657846046970589</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.01573334266699711</v>
+        <v>-0.01630960985417961</v>
       </c>
     </row>
     <row r="46">
